--- a/_output/sbs/municipal/group4/table_clean_2019_Julio.xlsx
+++ b/_output/sbs/municipal/group4/table_clean_2019_Julio.xlsx
@@ -14,49 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="308">
-  <si>
-    <t>Tasa Anual (%)</t>
-  </si>
-  <si>
-    <t>CMAC Arequipa</t>
-  </si>
-  <si>
-    <t>CMAC Cusco</t>
-  </si>
-  <si>
-    <t>CMAC del Santa</t>
-  </si>
-  <si>
-    <t>CMAC Huancayo</t>
-  </si>
-  <si>
-    <t>CMAC Ica</t>
-  </si>
-  <si>
-    <t>CMAC Maynas</t>
-  </si>
-  <si>
-    <t>CMAC Paita</t>
-  </si>
-  <si>
-    <t>CMAC Piura</t>
-  </si>
-  <si>
-    <t>CMAC Sullana</t>
-  </si>
-  <si>
-    <t>CMAC Tacna</t>
-  </si>
-  <si>
-    <t>CMAC Trujillo</t>
-  </si>
-  <si>
-    <t>CMCP Lima</t>
-  </si>
-  <si>
-    <t>Promedio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="294">
   <si>
     <t>Corporativos</t>
   </si>
@@ -944,16 +902,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -969,7 +919,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -977,30 +927,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,2078 +1227,2034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>239</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N8" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>280</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N10" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N11" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
+        <v>165</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N13" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I14" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N14" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>186</v>
       </c>
       <c r="K15" t="s">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="L15" t="s">
-        <v>39</v>
+        <v>226</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="N15" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I16" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="J16" t="s">
-        <v>200</v>
+        <v>25</v>
       </c>
       <c r="K16" t="s">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>240</v>
+        <v>25</v>
       </c>
       <c r="M16" t="s">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="N16" t="s">
-        <v>283</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="N17" t="s">
-        <v>39</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="H18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="K18" t="s">
-        <v>39</v>
+        <v>209</v>
       </c>
       <c r="L18" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M18" t="s">
-        <v>201</v>
+        <v>248</v>
       </c>
       <c r="N18" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J19" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="K19" t="s">
-        <v>223</v>
+        <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="M19" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="N19" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>168</v>
       </c>
       <c r="J20" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="K20" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="M20" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N20" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="K21" t="s">
-        <v>39</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="M21" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="N21" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="E22" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="I22" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="K22" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="N22" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="G23" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="H23" t="s">
-        <v>163</v>
+        <v>25</v>
       </c>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>25</v>
       </c>
       <c r="J23" t="s">
-        <v>206</v>
+        <v>25</v>
       </c>
       <c r="K23" t="s">
-        <v>225</v>
+        <v>25</v>
       </c>
       <c r="L23" t="s">
-        <v>244</v>
+        <v>25</v>
       </c>
       <c r="M23" t="s">
-        <v>266</v>
+        <v>25</v>
       </c>
       <c r="N23" t="s">
-        <v>289</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="H24" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>171</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>193</v>
       </c>
       <c r="K24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N24" t="s">
-        <v>39</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F25" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="H25" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="I25" t="s">
-        <v>185</v>
+        <v>25</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="K25" t="s">
-        <v>39</v>
+        <v>212</v>
       </c>
       <c r="L25" t="s">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="M25" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="N25" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="H26" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="M26" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="N26" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="G27" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="H27" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="I27" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="N27" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G28" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="H28" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="I28" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="J28" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="K28" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="M28" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="H29" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="I29" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="J29" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="K29" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="M29" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="N29" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>114</v>
+        <v>25</v>
       </c>
       <c r="F30" t="s">
-        <v>131</v>
+        <v>25</v>
       </c>
       <c r="G30" t="s">
-        <v>152</v>
+        <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>168</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
-        <v>189</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>212</v>
+        <v>25</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="L30" t="s">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="M30" t="s">
-        <v>271</v>
+        <v>25</v>
       </c>
       <c r="N30" t="s">
-        <v>295</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N31" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L32" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="M32" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N32" t="s">
-        <v>39</v>
+        <v>282</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="G33" t="s">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="H33" t="s">
-        <v>39</v>
+        <v>155</v>
       </c>
       <c r="I33" t="s">
-        <v>39</v>
+        <v>176</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>199</v>
       </c>
       <c r="K33" t="s">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="M33" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N33" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G34" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="H34" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="I34" t="s">
-        <v>190</v>
+        <v>25</v>
       </c>
       <c r="J34" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="K34" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="L34" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="M34" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="N34" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F35" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="G35" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="H35" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="J35" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="K35" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="L35" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="M35" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="N35" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="G36" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="H36" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="I36" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="J36" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="K36" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="L36" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="M36" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="N36" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="G37" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="H37" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="I37" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="J37" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="K37" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="L37" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="M37" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="N37" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G38" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H38" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="I38" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="J38" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="K38" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="L38" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="M38" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="N38" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="C39" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="F39" t="s">
-        <v>137</v>
+        <v>25</v>
       </c>
       <c r="G39" t="s">
-        <v>158</v>
+        <v>25</v>
       </c>
       <c r="H39" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="I39" t="s">
-        <v>194</v>
+        <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>218</v>
+        <v>25</v>
       </c>
       <c r="K39" t="s">
-        <v>236</v>
+        <v>25</v>
       </c>
       <c r="L39" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="M39" t="s">
-        <v>276</v>
+        <v>25</v>
       </c>
       <c r="N39" t="s">
-        <v>302</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I40" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M40" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N40" t="s">
-        <v>39</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I41" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="M41" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N41" t="s">
-        <v>303</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="G42" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="H42" t="s">
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="I42" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="K42" t="s">
-        <v>39</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="M42" t="s">
-        <v>39</v>
+        <v>263</v>
       </c>
       <c r="N42" t="s">
-        <v>60</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H43" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="I43" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="J43" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K43" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L43" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="M43" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="N43" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B44" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F44" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="G44" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="I44" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="J44" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="K44" t="s">
-        <v>238</v>
+        <v>53</v>
       </c>
       <c r="L44" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="M44" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="N44" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="F45" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="G45" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="H45" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="I45" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="J45" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="K45" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="L45" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="M45" t="s">
-        <v>279</v>
+        <v>25</v>
       </c>
       <c r="N45" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="F46" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="G46" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="H46" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I46" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="J46" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="K46" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="L46" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="M46" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="N46" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47" t="s">
-        <v>64</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E47" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" t="s">
-        <v>162</v>
-      </c>
-      <c r="H47" t="s">
-        <v>39</v>
-      </c>
-      <c r="I47" t="s">
-        <v>199</v>
-      </c>
-      <c r="J47" t="s">
-        <v>221</v>
-      </c>
-      <c r="K47" t="s">
-        <v>39</v>
-      </c>
-      <c r="L47" t="s">
-        <v>260</v>
-      </c>
-      <c r="M47" t="s">
-        <v>39</v>
-      </c>
-      <c r="N47" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
